--- a/assets/cursos/EP/LOQ4227.xlsx
+++ b/assets/cursos/EP/LOQ4227.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2021</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -79,19 +79,13 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840560 - Marco Antonio Carvalho Pereira</t>
+    <t>8188658 - Maria Auxiliadora Motta Barreto</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1. As necessidades das empresas modernas.
-2. Os novos modelos de produção. 
-3. As escolas de organização do trabalho. 
-4. Princípios sócio-técnicos de planejamento do trabalho. 
-5. Trabalho em grupo
-6. Organização por processos.
-7. Mudanças organizacionais.</t>
+    <t>1. As necessidades das empresas modernas.2. Os novos modelos de produção. 3. As escolas de organização do trabalho. 4. Princípios sócio-técnicos de planejamento do trabalho. 5. Trabalho em grupo6. Organização por processos.7. Mudanças organizacionais.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,13 +94,7 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1.  As necessidades das empresas modernas: Organização, produtividade, qualidade, flexibilidade e competitividade.
-2. Os novos modelos de produção: a "revolução" contemporânea nas fábricas.
-3. As escolas de organização do trabalho: escola clássica (taylorismo/fordismo), escola de relações humanas (enriquecimento de cargos), escola sócio-técnica (grupos semi-autônomos).
-4. Princípios sócio-técnicos de planejamento do trabalho: metodologia original de projeto organizacional de Tavistock.
-5. Trabalho em grupo: tipos, casos. Grupos abertos e grupos fechados. Relações de fronteira (produção-manutenção, qualidade e planejamento, dentre outros).
-6. Organização por processos.
-7. Implantação de mudanças organizacionais.</t>
+    <t>1. As necessidades das empresas modernas: Organização, produtividade, qualidade, flexibilidade e competitividade.2. Os novos modelos de produção: a "revolução" contemporânea nas fábricas.3. As escolas de organização do trabalho: administração científica, escola clássica (taylorismo/fordismo), escola de relações humanas (enriquecimento de cargos), escola sócio-técnica (grupos semi-autônomos), da contingência4. Princípios sócio-técnicos de planejamento do trabalho: metodologia original de projeto organizacional de Tavistock.5. Trabalho em grupo: tipos, casos. Grupos abertos e grupos fechados. Relações de fronteira (produção-manutenção, qualidade e planejamento, dentre outros).6. Organização por processos.7. Implantação de mudanças organizacionais</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -118,13 +106,13 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>2 provas escritas</t>
+    <t>Apresentação de seminário e  prova escrita</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Média aritmética das duas provas.</t>
+    <t>Média aritmética das duas  atividades avaliativas.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
@@ -136,14 +124,7 @@
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>FLEURY, Afonso C.C.; VARGAS, N. Organização do trabalho. São Paulo: Atlas, 1983.
-HELOANI, Roberto. Organização do Trabalho e Administração: Uma Visão Multidisciplinar. São Paulo: Cortez, 1994.
-MARX, Roberto. Trabalho em grupo e autonomia como instrumentos da competição. São Paulo: Atlas, 1998.
-SALERNO, Mario S. Projeto organizacional de produção integrada e flexível. São Paulo: EPUSP/PRO, 1998.
-SOUZA LIMA, J. C. Relações entre empresas da cadeia e questões contemporâneas de organização do trabalho. Itu: Ottoni, 2006.
-TAYLOR, Frederick W. Princípios de administração científica. São Paulo: Atlas, 1976.
-VARGAS, Nilton. Organização do trabalho e capital. Rio de Janeiro: COPPE/UFRJ/PEP, 1979.
-WOOMACK, James P.; JONES, Daniel T.; ROOS, Daniel. A máquina que mudou o mundo. Rio de Janeiro: Campus, 1992.</t>
+    <t>FLEURY, Afonso C.C.; VARGAS, N. Organização do trabalho. São Paulo: Atlas, 1983.HELOANI, Roberto. Organização do Trabalho e Administração: Uma Visão Multidisciplinar. São Paulo: Cortez, 1994.MARX, Roberto. Trabalho em grupo e autonomia como instrumentos da competição. São Paulo: Atlas, 1998.SALERNO, Mario S. Projeto organizacional de produção integrada e flexível. São Paulo: EPUSP/PRO, 1998.SOUZA LIMA, J. C. Relações entre empresas da cadeia e questões contemporâneas de organização do trabalho. Itu: Ottoni, 2006.TAYLOR, Frederick W. Princípios de administração científica. São Paulo: Atlas, 1976.VARGAS, Nilton. Organização do trabalho e capital. Rio de Janeiro: COPPE/UFRJ/PEP, 1979.WOOMACK, James P.; JONES, Daniel T.; ROOS, Daniel. A máquina que mudou o mundo. Rio de Janeiro: Campus, 1992.</t>
   </si>
   <si>
     <t>Requisitos:</t>
